--- a/Code/Results/Cases/Case_6_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030470891763143</v>
+        <v>1.025842792350584</v>
       </c>
       <c r="D2">
-        <v>1.046577118900839</v>
+        <v>1.043758861220466</v>
       </c>
       <c r="E2">
-        <v>1.042364269802637</v>
+        <v>1.038829426664533</v>
       </c>
       <c r="F2">
-        <v>1.052955177408046</v>
+        <v>1.049827559926405</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055836686965494</v>
+        <v>1.055763491267702</v>
       </c>
       <c r="J2">
-        <v>1.051776911016072</v>
+        <v>1.04727709852006</v>
       </c>
       <c r="K2">
-        <v>1.05742356849343</v>
+        <v>1.054640455885848</v>
       </c>
       <c r="L2">
-        <v>1.053263343364204</v>
+        <v>1.049773066029858</v>
       </c>
       <c r="M2">
-        <v>1.0637229534234</v>
+        <v>1.060633766555475</v>
       </c>
       <c r="N2">
-        <v>1.053270554870213</v>
+        <v>1.048764352124321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036495109336727</v>
+        <v>1.029818315874002</v>
       </c>
       <c r="D3">
-        <v>1.051245801403894</v>
+        <v>1.046784677782248</v>
       </c>
       <c r="E3">
-        <v>1.047397171636087</v>
+        <v>1.042069684294893</v>
       </c>
       <c r="F3">
-        <v>1.05809731625804</v>
+        <v>1.053245104260921</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057654067962915</v>
+        <v>1.056940911352884</v>
       </c>
       <c r="J3">
-        <v>1.056038015202404</v>
+        <v>1.049527840382712</v>
       </c>
       <c r="K3">
-        <v>1.061262426271877</v>
+        <v>1.056851989856716</v>
       </c>
       <c r="L3">
-        <v>1.057457493022874</v>
+        <v>1.052191150690992</v>
       </c>
       <c r="M3">
-        <v>1.068037118455183</v>
+        <v>1.063239184728697</v>
       </c>
       <c r="N3">
-        <v>1.057537710313245</v>
+        <v>1.051018290298581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040300386006824</v>
+        <v>1.03234534114181</v>
       </c>
       <c r="D4">
-        <v>1.054197212897492</v>
+        <v>1.048711020431705</v>
       </c>
       <c r="E4">
-        <v>1.050581665186884</v>
+        <v>1.044134698390089</v>
       </c>
       <c r="F4">
-        <v>1.061350501078772</v>
+        <v>1.055422588008841</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058791659573501</v>
+        <v>1.057681786668385</v>
       </c>
       <c r="J4">
-        <v>1.058726512874471</v>
+        <v>1.050956340541364</v>
       </c>
       <c r="K4">
-        <v>1.063682734982999</v>
+        <v>1.058255051319853</v>
       </c>
       <c r="L4">
-        <v>1.060105662059618</v>
+        <v>1.053728111410733</v>
       </c>
       <c r="M4">
-        <v>1.070760845100167</v>
+        <v>1.064895143449289</v>
       </c>
       <c r="N4">
-        <v>1.060230025960381</v>
+        <v>1.052448819091309</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041878901207065</v>
+        <v>1.033397164898816</v>
       </c>
       <c r="D5">
-        <v>1.055422022255305</v>
+        <v>1.04951350175239</v>
       </c>
       <c r="E5">
-        <v>1.051903895923682</v>
+        <v>1.044995470919359</v>
       </c>
       <c r="F5">
-        <v>1.062701146677078</v>
+        <v>1.056330119140107</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059261020339858</v>
+        <v>1.057988321052492</v>
       </c>
       <c r="J5">
-        <v>1.059840973898099</v>
+        <v>1.05155037632311</v>
       </c>
       <c r="K5">
-        <v>1.064685581941529</v>
+        <v>1.058838369471861</v>
       </c>
       <c r="L5">
-        <v>1.061203859143788</v>
+        <v>1.054367790603302</v>
       </c>
       <c r="M5">
-        <v>1.071890318176814</v>
+        <v>1.065584330383711</v>
       </c>
       <c r="N5">
-        <v>1.061346069646494</v>
+        <v>1.053043698472002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042142724001442</v>
+        <v>1.033573162205501</v>
       </c>
       <c r="D6">
-        <v>1.055626756092928</v>
+        <v>1.049647816463729</v>
       </c>
       <c r="E6">
-        <v>1.052124955545453</v>
+        <v>1.045139573022587</v>
       </c>
       <c r="F6">
-        <v>1.062926950525112</v>
+        <v>1.056482041915221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059339315685678</v>
+        <v>1.0580395031794</v>
       </c>
       <c r="J6">
-        <v>1.060027189930289</v>
+        <v>1.051649740831444</v>
       </c>
       <c r="K6">
-        <v>1.06485312188103</v>
+        <v>1.058935932890956</v>
       </c>
       <c r="L6">
-        <v>1.06138738411734</v>
+        <v>1.054474821684202</v>
       </c>
       <c r="M6">
-        <v>1.072079066289628</v>
+        <v>1.065699643945667</v>
       </c>
       <c r="N6">
-        <v>1.061532550126808</v>
+        <v>1.053143204089336</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040321560330034</v>
+        <v>1.032359436637403</v>
       </c>
       <c r="D7">
-        <v>1.054213640713813</v>
+        <v>1.048721771855054</v>
       </c>
       <c r="E7">
-        <v>1.050599396908474</v>
+        <v>1.044146228709396</v>
       </c>
       <c r="F7">
-        <v>1.061368614282171</v>
+        <v>1.055434745157935</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058797965708977</v>
+        <v>1.057685901840378</v>
       </c>
       <c r="J7">
-        <v>1.058741465520729</v>
+        <v>1.05096430342003</v>
       </c>
       <c r="K7">
-        <v>1.063696191878517</v>
+        <v>1.058262871088906</v>
       </c>
       <c r="L7">
-        <v>1.060120394708394</v>
+        <v>1.053736683990738</v>
       </c>
       <c r="M7">
-        <v>1.070775997560945</v>
+        <v>1.064904379577535</v>
       </c>
       <c r="N7">
-        <v>1.060244999841112</v>
+        <v>1.052456793278178</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032526635949152</v>
+        <v>1.027195944883969</v>
       </c>
       <c r="D8">
-        <v>1.048169745588934</v>
+        <v>1.044788110306274</v>
       </c>
       <c r="E8">
-        <v>1.044080556619679</v>
+        <v>1.039931173798443</v>
       </c>
       <c r="F8">
-        <v>1.054708802624783</v>
+        <v>1.050989695868947</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056459014748044</v>
+        <v>1.056165812283735</v>
       </c>
       <c r="J8">
-        <v>1.05323161658744</v>
+        <v>1.048043624024207</v>
       </c>
       <c r="K8">
-        <v>1.058734486836179</v>
+        <v>1.055393740908541</v>
       </c>
       <c r="L8">
-        <v>1.054694784305735</v>
+        <v>1.050596111163836</v>
       </c>
       <c r="M8">
-        <v>1.065195397948214</v>
+        <v>1.061520588997577</v>
       </c>
       <c r="N8">
-        <v>1.054727326290349</v>
+        <v>1.049531966182605</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01803217727475</v>
+        <v>1.017733832360095</v>
       </c>
       <c r="D9">
-        <v>1.036953996255149</v>
+        <v>1.037605226894559</v>
       </c>
       <c r="E9">
-        <v>1.032005412543503</v>
+        <v>1.032251107156034</v>
       </c>
       <c r="F9">
-        <v>1.042369316580194</v>
+        <v>1.042886475581981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052028832730064</v>
+        <v>1.053321885777536</v>
       </c>
       <c r="J9">
-        <v>1.042963856727339</v>
+        <v>1.042675538478111</v>
       </c>
       <c r="K9">
-        <v>1.049474680037968</v>
+        <v>1.05011628807037</v>
       </c>
       <c r="L9">
-        <v>1.044599721572121</v>
+        <v>1.044841739541253</v>
       </c>
       <c r="M9">
-        <v>1.054810447402214</v>
+        <v>1.05532006397948</v>
       </c>
       <c r="N9">
-        <v>1.044444985033518</v>
+        <v>1.044156257339306</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00778570530398</v>
+        <v>1.011158446510624</v>
       </c>
       <c r="D10">
-        <v>1.029046318169166</v>
+        <v>1.03263372431735</v>
       </c>
       <c r="E10">
-        <v>1.023505688723183</v>
+        <v>1.026946274538098</v>
       </c>
       <c r="F10">
-        <v>1.03368164041208</v>
+        <v>1.037286546174651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048845432138651</v>
+        <v>1.05130808842015</v>
       </c>
       <c r="J10">
-        <v>1.035693790521228</v>
+        <v>1.038936236293755</v>
       </c>
       <c r="K10">
-        <v>1.042910215782062</v>
+        <v>1.046437747293792</v>
       </c>
       <c r="L10">
-        <v>1.037463125506449</v>
+        <v>1.040845472736978</v>
       </c>
       <c r="M10">
-        <v>1.047468274394831</v>
+        <v>1.051013705862446</v>
       </c>
       <c r="N10">
-        <v>1.037164594499506</v>
+        <v>1.040411644916944</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003192102196849</v>
+        <v>1.008242352659421</v>
       </c>
       <c r="D11">
-        <v>1.025507572842211</v>
+        <v>1.03043431102247</v>
       </c>
       <c r="E11">
-        <v>1.019705044907763</v>
+        <v>1.024601850278938</v>
       </c>
       <c r="F11">
-        <v>1.029796581476805</v>
+        <v>1.03481102841226</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047406843342725</v>
+        <v>1.050406548406624</v>
       </c>
       <c r="J11">
-        <v>1.032432686300772</v>
+        <v>1.037276215142784</v>
       </c>
       <c r="K11">
-        <v>1.039963969045971</v>
+        <v>1.044804231841975</v>
       </c>
       <c r="L11">
-        <v>1.034264680617688</v>
+        <v>1.039074261343461</v>
       </c>
       <c r="M11">
-        <v>1.044177635508529</v>
+        <v>1.049105021207077</v>
       </c>
       <c r="N11">
-        <v>1.033898859137004</v>
+        <v>1.038749266345532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001460532349555</v>
+        <v>1.007148335685677</v>
       </c>
       <c r="D12">
-        <v>1.024174714928949</v>
+        <v>1.029610032192868</v>
       </c>
       <c r="E12">
-        <v>1.018273979076865</v>
+        <v>1.023723585459765</v>
       </c>
       <c r="F12">
-        <v>1.028333681603597</v>
+        <v>1.033883550750903</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046862920134641</v>
+        <v>1.05006709184822</v>
       </c>
       <c r="J12">
-        <v>1.031203208189972</v>
+        <v>1.036653216249346</v>
       </c>
       <c r="K12">
-        <v>1.038852972353789</v>
+        <v>1.044191118243451</v>
       </c>
       <c r="L12">
-        <v>1.033059257462033</v>
+        <v>1.038409968353784</v>
       </c>
       <c r="M12">
-        <v>1.042937466169423</v>
+        <v>1.048389165612161</v>
       </c>
       <c r="N12">
-        <v>1.032667635026264</v>
+        <v>1.038125382722207</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001833134701562</v>
+        <v>1.007383505324032</v>
       </c>
       <c r="D13">
-        <v>1.024461470781704</v>
+        <v>1.029787178984917</v>
       </c>
       <c r="E13">
-        <v>1.018581844444559</v>
+        <v>1.023912318317381</v>
       </c>
       <c r="F13">
-        <v>1.028648397528395</v>
+        <v>1.034082863758459</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04698003549674</v>
+        <v>1.05014011630027</v>
       </c>
       <c r="J13">
-        <v>1.031467777041971</v>
+        <v>1.036787145126303</v>
       </c>
       <c r="K13">
-        <v>1.03909205513878</v>
+        <v>1.044322924708952</v>
       </c>
       <c r="L13">
-        <v>1.033318630274386</v>
+        <v>1.03855275471779</v>
       </c>
       <c r="M13">
-        <v>1.043204315241077</v>
+        <v>1.048543035204638</v>
       </c>
       <c r="N13">
-        <v>1.032932579596378</v>
+        <v>1.038259501793529</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003049496897178</v>
+        <v>1.00815214518633</v>
       </c>
       <c r="D14">
-        <v>1.025397781186322</v>
+        <v>1.030366326969184</v>
       </c>
       <c r="E14">
-        <v>1.019587154850871</v>
+        <v>1.02452940634913</v>
       </c>
       <c r="F14">
-        <v>1.029676069910369</v>
+        <v>1.034734527243274</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047362080888613</v>
+        <v>1.05037858320774</v>
       </c>
       <c r="J14">
-        <v>1.032331434812669</v>
+        <v>1.037224849782501</v>
       </c>
       <c r="K14">
-        <v>1.039872479285565</v>
+        <v>1.04475368272603</v>
       </c>
       <c r="L14">
-        <v>1.034165401293408</v>
+        <v>1.03901948248661</v>
       </c>
       <c r="M14">
-        <v>1.044075494423239</v>
+        <v>1.049045990453647</v>
       </c>
       <c r="N14">
-        <v>1.033797463860173</v>
+        <v>1.038697828040545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003795530199267</v>
+        <v>1.008624276500119</v>
       </c>
       <c r="D15">
-        <v>1.025972196139368</v>
+        <v>1.030722180104439</v>
       </c>
       <c r="E15">
-        <v>1.020203957125658</v>
+        <v>1.024908618732415</v>
       </c>
       <c r="F15">
-        <v>1.030306586003208</v>
+        <v>1.03513497330416</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047596187225541</v>
+        <v>1.050524898593629</v>
       </c>
       <c r="J15">
-        <v>1.032861119967924</v>
+        <v>1.037493679151684</v>
       </c>
       <c r="K15">
-        <v>1.040351088153916</v>
+        <v>1.045018237654966</v>
       </c>
       <c r="L15">
-        <v>1.034684786953754</v>
+        <v>1.039306194728024</v>
       </c>
       <c r="M15">
-        <v>1.04460985159638</v>
+        <v>1.049354956979295</v>
       </c>
       <c r="N15">
-        <v>1.034327901229105</v>
+        <v>1.038967039178268</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008087118833531</v>
+        <v>1.011350484452089</v>
       </c>
       <c r="D16">
-        <v>1.029278658620779</v>
+        <v>1.032778682591733</v>
       </c>
       <c r="E16">
-        <v>1.023755285915734</v>
+        <v>1.027100840704343</v>
       </c>
       <c r="F16">
-        <v>1.033936774170184</v>
+        <v>1.037449740991472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048939595037816</v>
+        <v>1.051367285873635</v>
       </c>
       <c r="J16">
-        <v>1.03590773909977</v>
+        <v>1.03904552401224</v>
       </c>
       <c r="K16">
-        <v>1.043103475463311</v>
+        <v>1.046545280918514</v>
       </c>
       <c r="L16">
-        <v>1.037673022213695</v>
+        <v>1.040962141013103</v>
       </c>
       <c r="M16">
-        <v>1.047684220773255</v>
+        <v>1.05113942882362</v>
       </c>
       <c r="N16">
-        <v>1.03737884690957</v>
+        <v>1.040521087836524</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010735957288552</v>
+        <v>1.013041771916257</v>
       </c>
       <c r="D17">
-        <v>1.031321213782253</v>
+        <v>1.034055957554435</v>
       </c>
       <c r="E17">
-        <v>1.02594989209336</v>
+        <v>1.028463053382839</v>
       </c>
       <c r="F17">
-        <v>1.03618001959233</v>
+        <v>1.038887921535309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049765815192008</v>
+        <v>1.051887681628672</v>
       </c>
       <c r="J17">
-        <v>1.037787729632007</v>
+        <v>1.040007837722171</v>
       </c>
       <c r="K17">
-        <v>1.044801485815115</v>
+        <v>1.047492096810487</v>
       </c>
       <c r="L17">
-        <v>1.039517726136475</v>
+        <v>1.04198977216701</v>
       </c>
       <c r="M17">
-        <v>1.049582087226281</v>
+        <v>1.052246811135518</v>
       </c>
       <c r="N17">
-        <v>1.039261507244001</v>
+        <v>1.041484768142303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012265975878851</v>
+        <v>1.014021657683304</v>
       </c>
       <c r="D18">
-        <v>1.032501623245313</v>
+        <v>1.034796483720696</v>
       </c>
       <c r="E18">
-        <v>1.02721846281374</v>
+        <v>1.029253058434168</v>
       </c>
       <c r="F18">
-        <v>1.037476670024339</v>
+        <v>1.039721919010429</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050241969591615</v>
+        <v>1.05218837846791</v>
       </c>
       <c r="J18">
-        <v>1.038873466279929</v>
+        <v>1.040565212554385</v>
       </c>
       <c r="K18">
-        <v>1.04578196715345</v>
+        <v>1.048040450154649</v>
       </c>
       <c r="L18">
-        <v>1.040583346585422</v>
+        <v>1.042585253320504</v>
       </c>
       <c r="M18">
-        <v>1.050678411571293</v>
+        <v>1.052888502130989</v>
       </c>
       <c r="N18">
-        <v>1.040348785762499</v>
+        <v>1.04204293451071</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012785177942727</v>
+        <v>1.014354666253679</v>
       </c>
       <c r="D19">
-        <v>1.032902284399208</v>
+        <v>1.035048231815468</v>
       </c>
       <c r="E19">
-        <v>1.027649097938384</v>
+        <v>1.029521667333064</v>
       </c>
       <c r="F19">
-        <v>1.037916830965425</v>
+        <v>1.04000547480788</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050403363243446</v>
+        <v>1.052290430657784</v>
       </c>
       <c r="J19">
-        <v>1.039241871060176</v>
+        <v>1.040754604378301</v>
       </c>
       <c r="K19">
-        <v>1.04611462997723</v>
+        <v>1.048226768651302</v>
       </c>
       <c r="L19">
-        <v>1.040944969865142</v>
+        <v>1.042787639872496</v>
       </c>
       <c r="M19">
-        <v>1.051050453059916</v>
+        <v>1.053106593389033</v>
       </c>
       <c r="N19">
-        <v>1.04071771371979</v>
+        <v>1.04223259529274</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010453325988935</v>
+        <v>1.012861000354451</v>
       </c>
       <c r="D20">
-        <v>1.031103210692206</v>
+        <v>1.033919384234553</v>
       </c>
       <c r="E20">
-        <v>1.025715630590429</v>
+        <v>1.028317373800488</v>
       </c>
       <c r="F20">
-        <v>1.035940569792811</v>
+        <v>1.038734124395494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049677769647844</v>
+        <v>1.051832142986628</v>
       </c>
       <c r="J20">
-        <v>1.037587152707046</v>
+        <v>1.039904998475343</v>
       </c>
       <c r="K20">
-        <v>1.044620340631908</v>
+        <v>1.047390918384239</v>
       </c>
       <c r="L20">
-        <v>1.039320886601401</v>
+        <v>1.041879924207414</v>
       </c>
       <c r="M20">
-        <v>1.049379575558814</v>
+        <v>1.052128438580524</v>
       </c>
       <c r="N20">
-        <v>1.0390606454768</v>
+        <v>1.041381782851948</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00269202181544</v>
+        <v>1.007926103553531</v>
       </c>
       <c r="D21">
-        <v>1.025122579376095</v>
+        <v>1.030195986847002</v>
       </c>
       <c r="E21">
-        <v>1.019291660663676</v>
+        <v>1.02434789738158</v>
       </c>
       <c r="F21">
-        <v>1.02937400408377</v>
+        <v>1.034542851163592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047249846649042</v>
+        <v>1.050308488402705</v>
       </c>
       <c r="J21">
-        <v>1.032077620298976</v>
+        <v>1.037096135244494</v>
       </c>
       <c r="K21">
-        <v>1.039643131690556</v>
+        <v>1.044627012610699</v>
       </c>
       <c r="L21">
-        <v>1.03391653753848</v>
+        <v>1.038882221212486</v>
       </c>
       <c r="M21">
-        <v>1.04381945710981</v>
+        <v>1.048898075010459</v>
       </c>
       <c r="N21">
-        <v>1.033543288900758</v>
+        <v>1.038568930713131</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976648076964003</v>
+        <v>1.004760296316143</v>
       </c>
       <c r="D22">
-        <v>1.021255133770414</v>
+        <v>1.027812434246347</v>
       </c>
       <c r="E22">
-        <v>1.015140052162816</v>
+        <v>1.021808905488171</v>
       </c>
       <c r="F22">
-        <v>1.025129958540708</v>
+        <v>1.031861393564898</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045667662116115</v>
+        <v>1.049323904398428</v>
       </c>
       <c r="J22">
-        <v>1.028507837859685</v>
+        <v>1.035292967680287</v>
       </c>
       <c r="K22">
-        <v>1.036416963389402</v>
+        <v>1.04285234816232</v>
       </c>
       <c r="L22">
-        <v>1.030417432164216</v>
+        <v>1.036960360209948</v>
       </c>
       <c r="M22">
-        <v>1.040219500152438</v>
+        <v>1.046827034956689</v>
       </c>
       <c r="N22">
-        <v>1.029968436960943</v>
+        <v>1.036763202444156</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00034442519385</v>
+        <v>1.006444699963997</v>
       </c>
       <c r="D23">
-        <v>1.023315924286327</v>
+        <v>1.029080133959876</v>
       </c>
       <c r="E23">
-        <v>1.017352030620844</v>
+        <v>1.023159081958534</v>
       </c>
       <c r="F23">
-        <v>1.027391211525471</v>
+        <v>1.033287386695308</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046511873489143</v>
+        <v>1.049848422993534</v>
       </c>
       <c r="J23">
-        <v>1.030410686444067</v>
+        <v>1.036252467599959</v>
       </c>
       <c r="K23">
-        <v>1.038136763817353</v>
+        <v>1.043796711915368</v>
       </c>
       <c r="L23">
-        <v>1.032282364849073</v>
+        <v>1.037982779781338</v>
       </c>
       <c r="M23">
-        <v>1.042138180770124</v>
+        <v>1.04792881790482</v>
       </c>
       <c r="N23">
-        <v>1.031873987808575</v>
+        <v>1.03772406496377</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010581081145862</v>
+        <v>1.012942703644275</v>
       </c>
       <c r="D24">
-        <v>1.0312017507442</v>
+        <v>1.033981109683169</v>
       </c>
       <c r="E24">
-        <v>1.025821518742587</v>
+        <v>1.02838321417298</v>
       </c>
       <c r="F24">
-        <v>1.03604880320963</v>
+        <v>1.038803633725078</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049717571418381</v>
+        <v>1.051857247278126</v>
       </c>
       <c r="J24">
-        <v>1.03767781816779</v>
+        <v>1.039951479220358</v>
       </c>
       <c r="K24">
-        <v>1.044702222982073</v>
+        <v>1.047436648620686</v>
       </c>
       <c r="L24">
-        <v>1.039409861860515</v>
+        <v>1.041929571863792</v>
       </c>
       <c r="M24">
-        <v>1.049471114750919</v>
+        <v>1.052181939084123</v>
       </c>
       <c r="N24">
-        <v>1.039151439692898</v>
+        <v>1.041428329604953</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021876428699235</v>
+        <v>1.020225368409204</v>
       </c>
       <c r="D25">
-        <v>1.039925481758319</v>
+        <v>1.039493345833665</v>
       </c>
       <c r="E25">
-        <v>1.035202127271778</v>
+        <v>1.034268015641363</v>
       </c>
       <c r="F25">
-        <v>1.045636357761499</v>
+        <v>1.045014995143571</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053212911561998</v>
+        <v>1.054077367982706</v>
       </c>
       <c r="J25">
-        <v>1.045689345285446</v>
+        <v>1.0440907267337</v>
       </c>
       <c r="K25">
-        <v>1.051934082046527</v>
+        <v>1.051508022486082</v>
       </c>
       <c r="L25">
-        <v>1.047277491964424</v>
+        <v>1.046356675333721</v>
       </c>
       <c r="M25">
-        <v>1.057565251145947</v>
+        <v>1.056952507627737</v>
       </c>
       <c r="N25">
-        <v>1.047174344097996</v>
+        <v>1.045573455324541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025842792350584</v>
+        <v>1.017531808437746</v>
       </c>
       <c r="D2">
-        <v>1.043758861220466</v>
+        <v>1.036556313736225</v>
       </c>
       <c r="E2">
-        <v>1.038829426664533</v>
+        <v>1.031653775839657</v>
       </c>
       <c r="F2">
-        <v>1.049827559926405</v>
+        <v>1.042576849805687</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055763491267702</v>
+        <v>1.051636144969261</v>
       </c>
       <c r="J2">
-        <v>1.04727709852006</v>
+        <v>1.039200498558044</v>
       </c>
       <c r="K2">
-        <v>1.054640455885848</v>
+        <v>1.04752881209343</v>
       </c>
       <c r="L2">
-        <v>1.049773066029858</v>
+        <v>1.042689057237637</v>
       </c>
       <c r="M2">
-        <v>1.060633766555475</v>
+        <v>1.053473255261824</v>
       </c>
       <c r="N2">
-        <v>1.048764352124321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016891042657088</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044677252388289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029818315874002</v>
+        <v>1.020817127120726</v>
       </c>
       <c r="D3">
-        <v>1.046784677782248</v>
+        <v>1.038796015889776</v>
       </c>
       <c r="E3">
-        <v>1.042069684294893</v>
+        <v>1.034254067040956</v>
       </c>
       <c r="F3">
-        <v>1.053245104260921</v>
+        <v>1.045291560988629</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056940911352884</v>
+        <v>1.052388932146417</v>
       </c>
       <c r="J3">
-        <v>1.049527840382712</v>
+        <v>1.040755946305906</v>
       </c>
       <c r="K3">
-        <v>1.056851989856716</v>
+        <v>1.048955439655878</v>
       </c>
       <c r="L3">
-        <v>1.052191150690992</v>
+        <v>1.044466646147254</v>
       </c>
       <c r="M3">
-        <v>1.063239184728697</v>
+        <v>1.055375957094389</v>
       </c>
       <c r="N3">
-        <v>1.051018290298581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017414803636223</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045683341590432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03234534114181</v>
+        <v>1.022910911413456</v>
       </c>
       <c r="D4">
-        <v>1.048711020431705</v>
+        <v>1.040227710414498</v>
       </c>
       <c r="E4">
-        <v>1.044134698390089</v>
+        <v>1.035916905960466</v>
       </c>
       <c r="F4">
-        <v>1.055422588008841</v>
+        <v>1.047027337963821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057681786668385</v>
+        <v>1.052862183158793</v>
       </c>
       <c r="J4">
-        <v>1.050956340541364</v>
+        <v>1.041746171784827</v>
       </c>
       <c r="K4">
-        <v>1.058255051319853</v>
+        <v>1.049863705054265</v>
       </c>
       <c r="L4">
-        <v>1.053728111410733</v>
+        <v>1.045600341467349</v>
       </c>
       <c r="M4">
-        <v>1.064895143449289</v>
+        <v>1.056589475588054</v>
       </c>
       <c r="N4">
-        <v>1.052448819091309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017748237155321</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04632644014045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033397164898816</v>
+        <v>1.023786357476451</v>
       </c>
       <c r="D5">
-        <v>1.04951350175239</v>
+        <v>1.040829217013385</v>
       </c>
       <c r="E5">
-        <v>1.044995470919359</v>
+        <v>1.036613991745446</v>
       </c>
       <c r="F5">
-        <v>1.056330119140107</v>
+        <v>1.047755272965729</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057988321052492</v>
+        <v>1.053059808103893</v>
       </c>
       <c r="J5">
-        <v>1.05155037632311</v>
+        <v>1.042161277027717</v>
       </c>
       <c r="K5">
-        <v>1.058838369471861</v>
+        <v>1.050245740938454</v>
       </c>
       <c r="L5">
-        <v>1.054367790603302</v>
+        <v>1.046075682648935</v>
       </c>
       <c r="M5">
-        <v>1.065584330383711</v>
+        <v>1.057098547559418</v>
       </c>
       <c r="N5">
-        <v>1.053043698472002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017888212509569</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046603674162409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033573162205501</v>
+        <v>1.023936190416483</v>
       </c>
       <c r="D6">
-        <v>1.049647816463729</v>
+        <v>1.040934513342003</v>
       </c>
       <c r="E6">
-        <v>1.045139573022587</v>
+        <v>1.036733978461125</v>
       </c>
       <c r="F6">
-        <v>1.056482041915221</v>
+        <v>1.04788096374538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0580395031794</v>
+        <v>1.05309516660992</v>
       </c>
       <c r="J6">
-        <v>1.051649740831444</v>
+        <v>1.042233952085114</v>
       </c>
       <c r="K6">
-        <v>1.058935932890956</v>
+        <v>1.050314174791526</v>
       </c>
       <c r="L6">
-        <v>1.054474821684202</v>
+        <v>1.046158445490428</v>
       </c>
       <c r="M6">
-        <v>1.065699643945667</v>
+        <v>1.057187493017676</v>
       </c>
       <c r="N6">
-        <v>1.053143204089336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017912962839608</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046660729084534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032359436637403</v>
+        <v>1.022931439425549</v>
       </c>
       <c r="D7">
-        <v>1.048721771855054</v>
+        <v>1.040247935649419</v>
       </c>
       <c r="E7">
-        <v>1.044146228709396</v>
+        <v>1.035934865950796</v>
       </c>
       <c r="F7">
-        <v>1.055434745157935</v>
+        <v>1.04704714870182</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057685901840378</v>
+        <v>1.052871191606501</v>
       </c>
       <c r="J7">
-        <v>1.05096430342003</v>
+        <v>1.041760322744307</v>
       </c>
       <c r="K7">
-        <v>1.058262871088906</v>
+        <v>1.04988086207527</v>
       </c>
       <c r="L7">
-        <v>1.053736683990738</v>
+        <v>1.045615240236157</v>
       </c>
       <c r="M7">
-        <v>1.064904379577535</v>
+        <v>1.056606250625358</v>
       </c>
       <c r="N7">
-        <v>1.052456793278178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017753671975745</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04635850660275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027195944883969</v>
+        <v>1.018659836019943</v>
       </c>
       <c r="D8">
-        <v>1.044788110306274</v>
+        <v>1.037331981802389</v>
       </c>
       <c r="E8">
-        <v>1.039931173798443</v>
+        <v>1.032547469558535</v>
       </c>
       <c r="F8">
-        <v>1.050989695868947</v>
+        <v>1.043511184744059</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056165812283735</v>
+        <v>1.051901339364239</v>
       </c>
       <c r="J8">
-        <v>1.048043624024207</v>
+        <v>1.0397402633675</v>
       </c>
       <c r="K8">
-        <v>1.055393740908541</v>
+        <v>1.048028941157022</v>
       </c>
       <c r="L8">
-        <v>1.050596111163836</v>
+        <v>1.043303899325775</v>
       </c>
       <c r="M8">
-        <v>1.061520588997577</v>
+        <v>1.054132341065427</v>
       </c>
       <c r="N8">
-        <v>1.049531966182605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017073658539648</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04505359355033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017733832360095</v>
+        <v>1.010863938469938</v>
       </c>
       <c r="D9">
-        <v>1.037605226894559</v>
+        <v>1.032035701034263</v>
       </c>
       <c r="E9">
-        <v>1.032251107156034</v>
+        <v>1.026408278035204</v>
       </c>
       <c r="F9">
-        <v>1.042886475581981</v>
+        <v>1.037099289940014</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053321885777536</v>
+        <v>1.05007413808107</v>
       </c>
       <c r="J9">
-        <v>1.042675538478111</v>
+        <v>1.036038810756558</v>
       </c>
       <c r="K9">
-        <v>1.05011628807037</v>
+        <v>1.04462955669706</v>
       </c>
       <c r="L9">
-        <v>1.044841739541253</v>
+        <v>1.039086951739723</v>
       </c>
       <c r="M9">
-        <v>1.05532006397948</v>
+        <v>1.049617825527559</v>
       </c>
       <c r="N9">
-        <v>1.044156257339306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015826561341751</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042646894701152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011158446510624</v>
+        <v>1.005484771056347</v>
       </c>
       <c r="D10">
-        <v>1.03263372431735</v>
+        <v>1.028409134595083</v>
       </c>
       <c r="E10">
-        <v>1.026946274538098</v>
+        <v>1.022205517580077</v>
       </c>
       <c r="F10">
-        <v>1.037286546174651</v>
+        <v>1.032708903124931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05130808842015</v>
+        <v>1.048782486062972</v>
       </c>
       <c r="J10">
-        <v>1.038936236293755</v>
+        <v>1.033482455103944</v>
       </c>
       <c r="K10">
-        <v>1.046437747293792</v>
+        <v>1.042283723272716</v>
       </c>
       <c r="L10">
-        <v>1.040845472736978</v>
+        <v>1.03618509411041</v>
       </c>
       <c r="M10">
-        <v>1.051013705862446</v>
+        <v>1.046511677080152</v>
       </c>
       <c r="N10">
-        <v>1.040411644916944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014965684167323</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.0410049525062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008242352659421</v>
+        <v>1.003119759613158</v>
       </c>
       <c r="D11">
-        <v>1.03043431102247</v>
+        <v>1.026828598342376</v>
       </c>
       <c r="E11">
-        <v>1.024601850278938</v>
+        <v>1.020368099539799</v>
       </c>
       <c r="F11">
-        <v>1.03481102841226</v>
+        <v>1.030790251817218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050406548406624</v>
+        <v>1.048212489753831</v>
       </c>
       <c r="J11">
-        <v>1.037276215142784</v>
+        <v>1.032363326408303</v>
       </c>
       <c r="K11">
-        <v>1.044804231841975</v>
+        <v>1.041261702018799</v>
       </c>
       <c r="L11">
-        <v>1.039074261343461</v>
+        <v>1.034915860903515</v>
       </c>
       <c r="M11">
-        <v>1.049105021207077</v>
+        <v>1.045153966529179</v>
       </c>
       <c r="N11">
-        <v>1.038749266345532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014589854703237</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040314952246543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007148335685677</v>
+        <v>1.00222778025268</v>
       </c>
       <c r="D12">
-        <v>1.029610032192868</v>
+        <v>1.026229389404661</v>
       </c>
       <c r="E12">
-        <v>1.023723585459765</v>
+        <v>1.01967513640829</v>
       </c>
       <c r="F12">
-        <v>1.033883550750903</v>
+        <v>1.030065980337527</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05006709184822</v>
+        <v>1.047993556309519</v>
       </c>
       <c r="J12">
-        <v>1.036653216249346</v>
+        <v>1.031938154760954</v>
       </c>
       <c r="K12">
-        <v>1.044191118243451</v>
+        <v>1.040870756652994</v>
       </c>
       <c r="L12">
-        <v>1.038409968353784</v>
+        <v>1.034434856234072</v>
       </c>
       <c r="M12">
-        <v>1.048389165612161</v>
+        <v>1.04463897553534</v>
       </c>
       <c r="N12">
-        <v>1.038125382722207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014446543824913</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040038544844438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007383505324032</v>
+        <v>1.002418228534564</v>
       </c>
       <c r="D13">
-        <v>1.029787178984917</v>
+        <v>1.026356477069503</v>
       </c>
       <c r="E13">
-        <v>1.023912318317381</v>
+        <v>1.019822791040905</v>
       </c>
       <c r="F13">
-        <v>1.034082863758459</v>
+        <v>1.030220188357426</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05014011630027</v>
+        <v>1.048039787548791</v>
       </c>
       <c r="J13">
-        <v>1.036787145126303</v>
+        <v>1.032028347965605</v>
       </c>
       <c r="K13">
-        <v>1.044322924708952</v>
+        <v>1.040953169269454</v>
       </c>
       <c r="L13">
-        <v>1.03855275471779</v>
+        <v>1.034537029500725</v>
       </c>
       <c r="M13">
-        <v>1.048543035204638</v>
+        <v>1.044748279076374</v>
       </c>
       <c r="N13">
-        <v>1.038259501793529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014476837854007</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040094336686286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00815214518633</v>
+        <v>1.003045658677436</v>
       </c>
       <c r="D14">
-        <v>1.030366326969184</v>
+        <v>1.026778454399028</v>
       </c>
       <c r="E14">
-        <v>1.02452940634913</v>
+        <v>1.020310401849597</v>
       </c>
       <c r="F14">
-        <v>1.034734527243274</v>
+        <v>1.030729896863904</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05037858320774</v>
+        <v>1.048194083602409</v>
       </c>
       <c r="J14">
-        <v>1.037224849782501</v>
+        <v>1.032327755115552</v>
       </c>
       <c r="K14">
-        <v>1.04475368272603</v>
+        <v>1.041228771610254</v>
       </c>
       <c r="L14">
-        <v>1.03901948248661</v>
+        <v>1.03487567618309</v>
       </c>
       <c r="M14">
-        <v>1.049045990453647</v>
+        <v>1.045110904222107</v>
       </c>
       <c r="N14">
-        <v>1.038697828040545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014577819274257</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04029060906944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008624276500119</v>
+        <v>1.003433677430633</v>
       </c>
       <c r="D15">
-        <v>1.030722180104439</v>
+        <v>1.027041151968182</v>
       </c>
       <c r="E15">
-        <v>1.024908618732415</v>
+        <v>1.020612604291186</v>
       </c>
       <c r="F15">
-        <v>1.03513497330416</v>
+        <v>1.031046028240219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050524898593629</v>
+        <v>1.048290479022358</v>
       </c>
       <c r="J15">
-        <v>1.037493679151684</v>
+        <v>1.032514076950394</v>
       </c>
       <c r="K15">
-        <v>1.045018237654966</v>
+        <v>1.041401316027324</v>
       </c>
       <c r="L15">
-        <v>1.039306194728024</v>
+        <v>1.035086163182711</v>
       </c>
       <c r="M15">
-        <v>1.049354956979295</v>
+        <v>1.045336474197619</v>
       </c>
       <c r="N15">
-        <v>1.038967039178268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01464087149375</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040418433669793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011350484452089</v>
+        <v>1.005661571696635</v>
       </c>
       <c r="D16">
-        <v>1.032778682591733</v>
+        <v>1.028541366665954</v>
       </c>
       <c r="E16">
-        <v>1.027100840704343</v>
+        <v>1.022347219893329</v>
       </c>
       <c r="F16">
-        <v>1.037449740991472</v>
+        <v>1.032858985140671</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051367285873635</v>
+        <v>1.048834673104423</v>
       </c>
       <c r="J16">
-        <v>1.03904552401224</v>
+        <v>1.033576278231502</v>
       </c>
       <c r="K16">
-        <v>1.046545280918514</v>
+        <v>1.042378512552121</v>
       </c>
       <c r="L16">
-        <v>1.040962141013103</v>
+        <v>1.036288851376864</v>
       </c>
       <c r="M16">
-        <v>1.05113942882362</v>
+        <v>1.046624253695249</v>
       </c>
       <c r="N16">
-        <v>1.040521087836524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014999006107009</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.0411124834059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013041771916257</v>
+        <v>1.00704614622038</v>
       </c>
       <c r="D17">
-        <v>1.034055957554435</v>
+        <v>1.029475434133241</v>
       </c>
       <c r="E17">
-        <v>1.028463053382839</v>
+        <v>1.02342741125285</v>
       </c>
       <c r="F17">
-        <v>1.038887921535309</v>
+        <v>1.033987877529278</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051887681628672</v>
+        <v>1.049170916306519</v>
       </c>
       <c r="J17">
-        <v>1.040007837722171</v>
+        <v>1.034236218586655</v>
       </c>
       <c r="K17">
-        <v>1.047492096810487</v>
+        <v>1.042985663256022</v>
       </c>
       <c r="L17">
-        <v>1.04198977216701</v>
+        <v>1.037036774312206</v>
       </c>
       <c r="M17">
-        <v>1.052246811135518</v>
+        <v>1.047425111812674</v>
       </c>
       <c r="N17">
-        <v>1.041484768142303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015221518687937</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041544325399287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014021657683304</v>
+        <v>1.007842771884953</v>
       </c>
       <c r="D18">
-        <v>1.034796483720696</v>
+        <v>1.030009189533408</v>
       </c>
       <c r="E18">
-        <v>1.029253058434168</v>
+        <v>1.024048414978745</v>
       </c>
       <c r="F18">
-        <v>1.039721919010429</v>
+        <v>1.034636191205087</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05218837846791</v>
+        <v>1.049360672541433</v>
       </c>
       <c r="J18">
-        <v>1.040565212554385</v>
+        <v>1.034612728259157</v>
       </c>
       <c r="K18">
-        <v>1.048040450154649</v>
+        <v>1.04332927822059</v>
       </c>
       <c r="L18">
-        <v>1.042585253320504</v>
+        <v>1.037464562850682</v>
       </c>
       <c r="M18">
-        <v>1.052888502130989</v>
+        <v>1.047882691838048</v>
       </c>
       <c r="N18">
-        <v>1.04204293451071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015347924033672</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041775714719562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014354666253679</v>
+        <v>1.008118587802703</v>
       </c>
       <c r="D19">
-        <v>1.035048231815468</v>
+        <v>1.030197416342981</v>
       </c>
       <c r="E19">
-        <v>1.029521667333064</v>
+        <v>1.024264533999118</v>
       </c>
       <c r="F19">
-        <v>1.04000547480788</v>
+        <v>1.034862322400108</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052290430657784</v>
+        <v>1.049428580166283</v>
       </c>
       <c r="J19">
-        <v>1.040754604378301</v>
+        <v>1.034745498931011</v>
       </c>
       <c r="K19">
-        <v>1.048226768651302</v>
+        <v>1.043452633368879</v>
       </c>
       <c r="L19">
-        <v>1.042787639872496</v>
+        <v>1.037614803368154</v>
       </c>
       <c r="M19">
-        <v>1.053106593389033</v>
+        <v>1.04804378108334</v>
       </c>
       <c r="N19">
-        <v>1.04223259529274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015392926308312</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041869276727904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012861000354451</v>
+        <v>1.006897570289334</v>
       </c>
       <c r="D20">
-        <v>1.033919384234553</v>
+        <v>1.02937480628811</v>
       </c>
       <c r="E20">
-        <v>1.028317373800488</v>
+        <v>1.023311319571985</v>
       </c>
       <c r="F20">
-        <v>1.038734124395494</v>
+        <v>1.033866504159066</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051832142986628</v>
+        <v>1.049134676378867</v>
       </c>
       <c r="J20">
-        <v>1.039904998475343</v>
+        <v>1.03416516731257</v>
       </c>
       <c r="K20">
-        <v>1.047390918384239</v>
+        <v>1.04292007904664</v>
       </c>
       <c r="L20">
-        <v>1.041879924207414</v>
+        <v>1.036956289014844</v>
       </c>
       <c r="M20">
-        <v>1.052128438580524</v>
+        <v>1.047338891536719</v>
       </c>
       <c r="N20">
-        <v>1.041381782851948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01519751956174</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041496629604306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007926103553531</v>
+        <v>1.002867974937245</v>
       </c>
       <c r="D21">
-        <v>1.030195986847002</v>
+        <v>1.026663440741719</v>
       </c>
       <c r="E21">
-        <v>1.02434789738158</v>
+        <v>1.02017364588957</v>
       </c>
       <c r="F21">
-        <v>1.034542851163592</v>
+        <v>1.030587618449842</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050308488402705</v>
+        <v>1.048153573178062</v>
       </c>
       <c r="J21">
-        <v>1.037096135244494</v>
+        <v>1.032246274768443</v>
       </c>
       <c r="K21">
-        <v>1.044627012610699</v>
+        <v>1.041156681304976</v>
       </c>
       <c r="L21">
-        <v>1.038882221212486</v>
+        <v>1.034782643146533</v>
       </c>
       <c r="M21">
-        <v>1.048898075010459</v>
+        <v>1.045011780868043</v>
       </c>
       <c r="N21">
-        <v>1.038568930713131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014550935280451</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040253059253673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004760296316143</v>
+        <v>1.00028266940487</v>
       </c>
       <c r="D22">
-        <v>1.027812434246347</v>
+        <v>1.024924058852197</v>
       </c>
       <c r="E22">
-        <v>1.021808905488171</v>
+        <v>1.018166201629565</v>
       </c>
       <c r="F22">
-        <v>1.031861393564898</v>
+        <v>1.028488701767545</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049323904398428</v>
+        <v>1.047513783848961</v>
       </c>
       <c r="J22">
-        <v>1.035292967680287</v>
+        <v>1.031010460698205</v>
       </c>
       <c r="K22">
-        <v>1.04285234816232</v>
+        <v>1.040017423755482</v>
       </c>
       <c r="L22">
-        <v>1.036960360209948</v>
+        <v>1.033386172891998</v>
       </c>
       <c r="M22">
-        <v>1.046827034956689</v>
+        <v>1.043516157492926</v>
       </c>
       <c r="N22">
-        <v>1.036763202444156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014133788595728</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039434156288226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006444699963997</v>
+        <v>1.001649150417991</v>
       </c>
       <c r="D23">
-        <v>1.029080133959876</v>
+        <v>1.025837459972274</v>
       </c>
       <c r="E23">
-        <v>1.023159081958534</v>
+        <v>1.019224903630221</v>
       </c>
       <c r="F23">
-        <v>1.033287386695308</v>
+        <v>1.029594871018996</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049848422993534</v>
+        <v>1.04784877360745</v>
       </c>
       <c r="J23">
-        <v>1.036252467599959</v>
+        <v>1.031659747713376</v>
       </c>
       <c r="K23">
-        <v>1.043796711915368</v>
+        <v>1.040612503110056</v>
       </c>
       <c r="L23">
-        <v>1.037982779781338</v>
+        <v>1.034120672825264</v>
       </c>
       <c r="M23">
-        <v>1.04792881790482</v>
+        <v>1.044302212299516</v>
       </c>
       <c r="N23">
-        <v>1.03772406496377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01435223604877</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039845331312184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012942703644275</v>
+        <v>1.006951227663031</v>
       </c>
       <c r="D24">
-        <v>1.033981109683169</v>
+        <v>1.029402204480216</v>
       </c>
       <c r="E24">
-        <v>1.02838321417298</v>
+        <v>1.023350600417611</v>
       </c>
       <c r="F24">
-        <v>1.038803633725078</v>
+        <v>1.033906200881768</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051857247278126</v>
+        <v>1.049141496052397</v>
       </c>
       <c r="J24">
-        <v>1.039951479220358</v>
+        <v>1.034184296771954</v>
       </c>
       <c r="K24">
-        <v>1.047436648620686</v>
+        <v>1.042931935864578</v>
       </c>
       <c r="L24">
-        <v>1.041929571863792</v>
+        <v>1.036979697483267</v>
       </c>
       <c r="M24">
-        <v>1.052181939084123</v>
+        <v>1.047362946788892</v>
       </c>
       <c r="N24">
-        <v>1.041428329604953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01520283998667</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041477812951918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020225368409204</v>
+        <v>1.012924952365557</v>
       </c>
       <c r="D25">
-        <v>1.039493345833665</v>
+        <v>1.033441021802957</v>
       </c>
       <c r="E25">
-        <v>1.034268015641363</v>
+        <v>1.02802845112573</v>
       </c>
       <c r="F25">
-        <v>1.045014995143571</v>
+        <v>1.038793168193011</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054077367982706</v>
+        <v>1.050569634343828</v>
       </c>
       <c r="J25">
-        <v>1.0440907267337</v>
+        <v>1.037025034420057</v>
       </c>
       <c r="K25">
-        <v>1.051508022486082</v>
+        <v>1.045541477294811</v>
       </c>
       <c r="L25">
-        <v>1.046356675333721</v>
+        <v>1.040206702473701</v>
       </c>
       <c r="M25">
-        <v>1.056952507627737</v>
+        <v>1.050817703767307</v>
       </c>
       <c r="N25">
-        <v>1.045573455324541</v>
+        <v>1.01615997416812</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043320026028459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017531808437746</v>
+        <v>1.016568305311268</v>
       </c>
       <c r="D2">
-        <v>1.036556313736225</v>
+        <v>1.034939664046889</v>
       </c>
       <c r="E2">
-        <v>1.031653775839657</v>
+        <v>1.0307055107212</v>
       </c>
       <c r="F2">
-        <v>1.042576849805687</v>
+        <v>1.041339630008054</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051636144969261</v>
+        <v>1.050900165624562</v>
       </c>
       <c r="J2">
-        <v>1.039200498558044</v>
+        <v>1.038264507274871</v>
       </c>
       <c r="K2">
-        <v>1.04752881209343</v>
+        <v>1.045932783456954</v>
       </c>
       <c r="L2">
-        <v>1.042689057237637</v>
+        <v>1.041753022055818</v>
       </c>
       <c r="M2">
-        <v>1.053473255261824</v>
+        <v>1.052251582948777</v>
       </c>
       <c r="N2">
-        <v>1.016891042657088</v>
+        <v>1.017291377948218</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044677252388289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043557444692653</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024219433864041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020817127120726</v>
+        <v>1.019745137872216</v>
       </c>
       <c r="D3">
-        <v>1.038796015889776</v>
+        <v>1.037033182847503</v>
       </c>
       <c r="E3">
-        <v>1.034254067040956</v>
+        <v>1.033202105607695</v>
       </c>
       <c r="F3">
-        <v>1.045291560988629</v>
+        <v>1.043932959681245</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052388932146417</v>
+        <v>1.051578560590914</v>
       </c>
       <c r="J3">
-        <v>1.040755946305906</v>
+        <v>1.039711629986212</v>
       </c>
       <c r="K3">
-        <v>1.048955439655878</v>
+        <v>1.047213169009535</v>
       </c>
       <c r="L3">
-        <v>1.044466646147254</v>
+        <v>1.043427078562284</v>
       </c>
       <c r="M3">
-        <v>1.055375957094389</v>
+        <v>1.054032953140575</v>
       </c>
       <c r="N3">
-        <v>1.017414803636223</v>
+        <v>1.017678574126707</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045683341590432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044459855766053</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024464059279628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022910911413456</v>
+        <v>1.021770351964719</v>
       </c>
       <c r="D4">
-        <v>1.040227710414498</v>
+        <v>1.038372059811246</v>
       </c>
       <c r="E4">
-        <v>1.035916905960466</v>
+        <v>1.034799305054879</v>
       </c>
       <c r="F4">
-        <v>1.047027337963821</v>
+        <v>1.045591815517901</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052862183158793</v>
+        <v>1.052004542964465</v>
       </c>
       <c r="J4">
-        <v>1.041746171784827</v>
+        <v>1.040633101052112</v>
       </c>
       <c r="K4">
-        <v>1.049863705054265</v>
+        <v>1.048028416762128</v>
       </c>
       <c r="L4">
-        <v>1.045600341467349</v>
+        <v>1.044495119216709</v>
       </c>
       <c r="M4">
-        <v>1.056589475588054</v>
+        <v>1.055169447575139</v>
       </c>
       <c r="N4">
-        <v>1.017748237155321</v>
+        <v>1.017925154957322</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04632644014045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04503726748608</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02461764383897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023786357476451</v>
+        <v>1.022617269606502</v>
       </c>
       <c r="D5">
-        <v>1.040829217013385</v>
+        <v>1.038934897982995</v>
       </c>
       <c r="E5">
-        <v>1.036613991745446</v>
+        <v>1.035469065982944</v>
       </c>
       <c r="F5">
-        <v>1.047755272965729</v>
+        <v>1.046287721294984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053059808103893</v>
+        <v>1.052182457321773</v>
       </c>
       <c r="J5">
-        <v>1.042161277027717</v>
+        <v>1.041019539171883</v>
       </c>
       <c r="K5">
-        <v>1.050245740938454</v>
+        <v>1.048371664368165</v>
       </c>
       <c r="L5">
-        <v>1.046075682648935</v>
+        <v>1.044943102850597</v>
       </c>
       <c r="M5">
-        <v>1.057098547559418</v>
+        <v>1.055646417576402</v>
       </c>
       <c r="N5">
-        <v>1.017888212509569</v>
+        <v>1.01802872973695</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046603674162409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0452877865922</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024682196675166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023936190416483</v>
+        <v>1.02276224166034</v>
       </c>
       <c r="D6">
-        <v>1.040934513342003</v>
+        <v>1.039033652832121</v>
       </c>
       <c r="E6">
-        <v>1.036733978461125</v>
+        <v>1.035584401568924</v>
       </c>
       <c r="F6">
-        <v>1.04788096374538</v>
+        <v>1.046407974523903</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05309516660992</v>
+        <v>1.052214468096198</v>
       </c>
       <c r="J6">
-        <v>1.042233952085114</v>
+        <v>1.041087328452723</v>
       </c>
       <c r="K6">
-        <v>1.050314174791526</v>
+        <v>1.048433535125764</v>
       </c>
       <c r="L6">
-        <v>1.046158445490428</v>
+        <v>1.045021208342103</v>
       </c>
       <c r="M6">
-        <v>1.057187493017676</v>
+        <v>1.055729912285371</v>
       </c>
       <c r="N6">
-        <v>1.017912962839608</v>
+        <v>1.018047093107564</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046660729084534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045341069384431</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024694307008745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022931439425549</v>
+        <v>1.021796740934755</v>
       </c>
       <c r="D7">
-        <v>1.040247935649419</v>
+        <v>1.038396358077969</v>
       </c>
       <c r="E7">
-        <v>1.035934865950796</v>
+        <v>1.034822349705601</v>
       </c>
       <c r="F7">
-        <v>1.04704714870182</v>
+        <v>1.045616331519922</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052871191606501</v>
+        <v>1.052016351555791</v>
       </c>
       <c r="J7">
-        <v>1.041760322744307</v>
+        <v>1.040652960080825</v>
       </c>
       <c r="K7">
-        <v>1.04988086207527</v>
+        <v>1.048049594294369</v>
       </c>
       <c r="L7">
-        <v>1.045615240236157</v>
+        <v>1.044515041625053</v>
       </c>
       <c r="M7">
-        <v>1.056606250625358</v>
+        <v>1.055190871160631</v>
       </c>
       <c r="N7">
-        <v>1.017753671975745</v>
+        <v>1.017956671711134</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04635850660275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045074174592991</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024623517503416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018659836019943</v>
+        <v>1.017678948518799</v>
       </c>
       <c r="D8">
-        <v>1.037331981802389</v>
+        <v>1.035680037638875</v>
       </c>
       <c r="E8">
-        <v>1.032547469558535</v>
+        <v>1.031581012295686</v>
       </c>
       <c r="F8">
-        <v>1.043511184744059</v>
+        <v>1.042248796881613</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051901339364239</v>
+        <v>1.051149706562837</v>
       </c>
       <c r="J8">
-        <v>1.0397402633675</v>
+        <v>1.038786462240201</v>
       </c>
       <c r="K8">
-        <v>1.048028941157022</v>
+        <v>1.04639745294055</v>
       </c>
       <c r="L8">
-        <v>1.043303899325775</v>
+        <v>1.042349538401375</v>
       </c>
       <c r="M8">
-        <v>1.054132341065427</v>
+        <v>1.052885348650509</v>
       </c>
       <c r="N8">
-        <v>1.017073658539648</v>
+        <v>1.017509720637682</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04505359355033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04391098013509</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.0243119322348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010863938469938</v>
+        <v>1.010146933132061</v>
       </c>
       <c r="D9">
-        <v>1.032035701034263</v>
+        <v>1.030734758601298</v>
       </c>
       <c r="E9">
-        <v>1.026408278035204</v>
+        <v>1.025693139928066</v>
       </c>
       <c r="F9">
-        <v>1.037099289940014</v>
+        <v>1.036129978999842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05007413808107</v>
+        <v>1.049501289773363</v>
       </c>
       <c r="J9">
-        <v>1.036038810756558</v>
+        <v>1.035346395914473</v>
       </c>
       <c r="K9">
-        <v>1.04462955669706</v>
+        <v>1.04334811765796</v>
       </c>
       <c r="L9">
-        <v>1.039086951739723</v>
+        <v>1.038382677343387</v>
       </c>
       <c r="M9">
-        <v>1.049617825527559</v>
+        <v>1.048662860522681</v>
       </c>
       <c r="N9">
-        <v>1.015826561341751</v>
+        <v>1.016598269439079</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042646894701152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041751501765084</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023715925387444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005484771056347</v>
+        <v>1.004982806618594</v>
       </c>
       <c r="D10">
-        <v>1.028409134595083</v>
+        <v>1.027374317772961</v>
       </c>
       <c r="E10">
-        <v>1.022205517580077</v>
+        <v>1.021692179961164</v>
       </c>
       <c r="F10">
-        <v>1.032708903124931</v>
+        <v>1.031968874896631</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048782486062972</v>
+        <v>1.048348350611603</v>
       </c>
       <c r="J10">
-        <v>1.033482455103944</v>
+        <v>1.03300011435168</v>
       </c>
       <c r="K10">
-        <v>1.042283723272716</v>
+        <v>1.041266305697133</v>
       </c>
       <c r="L10">
-        <v>1.03618509411041</v>
+        <v>1.035680517818647</v>
       </c>
       <c r="M10">
-        <v>1.046511677080152</v>
+        <v>1.045783953887868</v>
       </c>
       <c r="N10">
-        <v>1.014965684167323</v>
+        <v>1.016086776622624</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0410049525062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040297912624128</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023300634413804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003119759613158</v>
+        <v>1.002760337805811</v>
       </c>
       <c r="D11">
-        <v>1.026828598342376</v>
+        <v>1.02594659747353</v>
       </c>
       <c r="E11">
-        <v>1.020368099539799</v>
+        <v>1.019985509556985</v>
       </c>
       <c r="F11">
-        <v>1.030790251817218</v>
+        <v>1.030191006333017</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048212489753831</v>
+        <v>1.047863016393462</v>
       </c>
       <c r="J11">
-        <v>1.032363326408303</v>
+        <v>1.032018732663721</v>
       </c>
       <c r="K11">
-        <v>1.041261702018799</v>
+        <v>1.040395244097766</v>
       </c>
       <c r="L11">
-        <v>1.034915860903515</v>
+        <v>1.034540120104992</v>
       </c>
       <c r="M11">
-        <v>1.045153966529179</v>
+        <v>1.04456517255669</v>
       </c>
       <c r="N11">
-        <v>1.014589854703237</v>
+        <v>1.016052160740238</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040314952246543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039717863695772</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02312964424697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00222778025268</v>
+        <v>1.001926622756938</v>
       </c>
       <c r="D12">
-        <v>1.026229389404661</v>
+        <v>1.02540832857183</v>
       </c>
       <c r="E12">
-        <v>1.01967513640829</v>
+        <v>1.019345830033854</v>
       </c>
       <c r="F12">
-        <v>1.030065980337527</v>
+        <v>1.029523601102698</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047993556309519</v>
+        <v>1.047678265551791</v>
       </c>
       <c r="J12">
-        <v>1.031938154760954</v>
+        <v>1.031649667673722</v>
       </c>
       <c r="K12">
-        <v>1.040870756652994</v>
+        <v>1.040064414326225</v>
       </c>
       <c r="L12">
-        <v>1.034434856234072</v>
+        <v>1.034111548528211</v>
       </c>
       <c r="M12">
-        <v>1.04463897553534</v>
+        <v>1.044106221931492</v>
       </c>
       <c r="N12">
-        <v>1.014446543824913</v>
+        <v>1.016054676254617</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040038544844438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039483963903014</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023063847683434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002418228534564</v>
+        <v>1.002104423382861</v>
       </c>
       <c r="D13">
-        <v>1.026356477069503</v>
+        <v>1.02552223046558</v>
       </c>
       <c r="E13">
-        <v>1.019822791040905</v>
+        <v>1.019481924801187</v>
       </c>
       <c r="F13">
-        <v>1.030220188357426</v>
+        <v>1.029665486247716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048039787548791</v>
+        <v>1.04771709269852</v>
       </c>
       <c r="J13">
-        <v>1.032028347965605</v>
+        <v>1.031727690192108</v>
       </c>
       <c r="K13">
-        <v>1.040953169269454</v>
+        <v>1.040133823110887</v>
       </c>
       <c r="L13">
-        <v>1.034537029500725</v>
+        <v>1.034202349514267</v>
       </c>
       <c r="M13">
-        <v>1.044748279076374</v>
+        <v>1.04420338483382</v>
       </c>
       <c r="N13">
-        <v>1.014476837854007</v>
+        <v>1.016053072596096</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040094336686286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039530318430707</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023077480512995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003045658677436</v>
+        <v>1.002690981537782</v>
       </c>
       <c r="D14">
-        <v>1.026778454399028</v>
+        <v>1.025901436377229</v>
       </c>
       <c r="E14">
-        <v>1.020310401849597</v>
+        <v>1.019932153959898</v>
       </c>
       <c r="F14">
-        <v>1.030729896863904</v>
+        <v>1.030135292229042</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048194083602409</v>
+        <v>1.047847401248863</v>
       </c>
       <c r="J14">
-        <v>1.032327755115552</v>
+        <v>1.03198773417208</v>
       </c>
       <c r="K14">
-        <v>1.041228771610254</v>
+        <v>1.04036723072249</v>
       </c>
       <c r="L14">
-        <v>1.03487567618309</v>
+        <v>1.034504209540451</v>
       </c>
       <c r="M14">
-        <v>1.045110904222107</v>
+        <v>1.044526685165345</v>
       </c>
       <c r="N14">
-        <v>1.014577819274257</v>
+        <v>1.016051888251808</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04029060906944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039696893497967</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023123999451415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003433677430633</v>
+        <v>1.003054338090363</v>
       </c>
       <c r="D15">
-        <v>1.027041151968182</v>
+        <v>1.026138182005322</v>
       </c>
       <c r="E15">
-        <v>1.020612604291186</v>
+        <v>1.020211781176706</v>
       </c>
       <c r="F15">
-        <v>1.031046028240219</v>
+        <v>1.030427277675356</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048290479022358</v>
+        <v>1.047929274464072</v>
       </c>
       <c r="J15">
-        <v>1.032514076950394</v>
+        <v>1.032150279340134</v>
       </c>
       <c r="K15">
-        <v>1.041401316027324</v>
+        <v>1.040514162655099</v>
       </c>
       <c r="L15">
-        <v>1.035086163182711</v>
+        <v>1.034692471722754</v>
       </c>
       <c r="M15">
-        <v>1.045336474197619</v>
+        <v>1.044728449223071</v>
       </c>
       <c r="N15">
-        <v>1.01464087149375</v>
+        <v>1.016054029163114</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040418433669793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039807178362894</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023153624728494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005661571696635</v>
+        <v>1.005150044222824</v>
       </c>
       <c r="D16">
-        <v>1.028541366665954</v>
+        <v>1.027496253287834</v>
       </c>
       <c r="E16">
-        <v>1.022347219893329</v>
+        <v>1.021825073793578</v>
       </c>
       <c r="F16">
-        <v>1.032858985140671</v>
+        <v>1.032109452391312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048834673104423</v>
+        <v>1.048394785500521</v>
       </c>
       <c r="J16">
-        <v>1.033576278231502</v>
+        <v>1.033084674720176</v>
       </c>
       <c r="K16">
-        <v>1.042378512552121</v>
+        <v>1.041350914711149</v>
       </c>
       <c r="L16">
-        <v>1.036288851376864</v>
+        <v>1.035775587823781</v>
       </c>
       <c r="M16">
-        <v>1.046624253695249</v>
+        <v>1.045887143215158</v>
       </c>
       <c r="N16">
-        <v>1.014999006107009</v>
+        <v>1.016098316669483</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.0411124834059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040402228760082</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023320261000053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00704614622038</v>
+        <v>1.006462031356435</v>
       </c>
       <c r="D17">
-        <v>1.029475434133241</v>
+        <v>1.02834911628788</v>
       </c>
       <c r="E17">
-        <v>1.02342741125285</v>
+        <v>1.022838254966118</v>
       </c>
       <c r="F17">
-        <v>1.033987877529278</v>
+        <v>1.033165058225046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049170916306519</v>
+        <v>1.048686863155041</v>
       </c>
       <c r="J17">
-        <v>1.034236218586655</v>
+        <v>1.033674128294162</v>
       </c>
       <c r="K17">
-        <v>1.042985663256022</v>
+        <v>1.041877693491792</v>
       </c>
       <c r="L17">
-        <v>1.037036774312206</v>
+        <v>1.036457355613484</v>
       </c>
       <c r="M17">
-        <v>1.047425111812674</v>
+        <v>1.046615541719709</v>
       </c>
       <c r="N17">
-        <v>1.015221518687937</v>
+        <v>1.01616241785704</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041544325399287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040777491895903</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023425258885074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007842771884953</v>
+        <v>1.007220588170241</v>
       </c>
       <c r="D18">
-        <v>1.030009189533408</v>
+        <v>1.028838794479352</v>
       </c>
       <c r="E18">
-        <v>1.024048414978745</v>
+        <v>1.023423931379271</v>
       </c>
       <c r="F18">
-        <v>1.034636191205087</v>
+        <v>1.03377424325939</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049360672541433</v>
+        <v>1.048853010063648</v>
       </c>
       <c r="J18">
-        <v>1.034612728259157</v>
+        <v>1.03401355860213</v>
       </c>
       <c r="K18">
-        <v>1.04332927822059</v>
+        <v>1.042177631704633</v>
       </c>
       <c r="L18">
-        <v>1.037464562850682</v>
+        <v>1.036850226119466</v>
       </c>
       <c r="M18">
-        <v>1.047882691838048</v>
+        <v>1.047034388409439</v>
       </c>
       <c r="N18">
-        <v>1.015347924033672</v>
+        <v>1.016212151371946</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041775714719562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040976863907743</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023484183331764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008118587802703</v>
+        <v>1.007483917069529</v>
       </c>
       <c r="D19">
-        <v>1.030197416342981</v>
+        <v>1.029012349024336</v>
       </c>
       <c r="E19">
-        <v>1.024264533999118</v>
+        <v>1.023628428421743</v>
       </c>
       <c r="F19">
-        <v>1.034862322400108</v>
+        <v>1.033987429134885</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049428580166283</v>
+        <v>1.048913094503811</v>
       </c>
       <c r="J19">
-        <v>1.034745498931011</v>
+        <v>1.034134149595792</v>
       </c>
       <c r="K19">
-        <v>1.043452633368879</v>
+        <v>1.04228644006001</v>
       </c>
       <c r="L19">
-        <v>1.037614803368154</v>
+        <v>1.036988972964608</v>
       </c>
       <c r="M19">
-        <v>1.04804378108334</v>
+        <v>1.047182656142697</v>
       </c>
       <c r="N19">
-        <v>1.015392926308312</v>
+        <v>1.01623318448292</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041869276727904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04106076277221</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023506283670184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006897570289334</v>
+        <v>1.00632085483551</v>
       </c>
       <c r="D20">
-        <v>1.02937480628811</v>
+        <v>1.028256905538317</v>
       </c>
       <c r="E20">
-        <v>1.023311319571985</v>
+        <v>1.022729012644788</v>
       </c>
       <c r="F20">
-        <v>1.033866504159066</v>
+        <v>1.033051222189955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049134676378867</v>
+        <v>1.048655169762434</v>
       </c>
       <c r="J20">
-        <v>1.03416516731257</v>
+        <v>1.033610273940436</v>
       </c>
       <c r="K20">
-        <v>1.04292007904664</v>
+        <v>1.041820445331756</v>
       </c>
       <c r="L20">
-        <v>1.036956289014844</v>
+        <v>1.036383636559912</v>
       </c>
       <c r="M20">
-        <v>1.047338891536719</v>
+        <v>1.046536778456017</v>
       </c>
       <c r="N20">
-        <v>1.01519751956174</v>
+        <v>1.01615392284317</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041496629604306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040735560620217</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023413773656482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002867974937245</v>
+        <v>1.002541022160982</v>
       </c>
       <c r="D21">
-        <v>1.026663440741719</v>
+        <v>1.025810706768076</v>
       </c>
       <c r="E21">
-        <v>1.02017364588957</v>
+        <v>1.01982019456133</v>
       </c>
       <c r="F21">
-        <v>1.030587618449842</v>
+        <v>1.03001783052005</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048153573178062</v>
+        <v>1.047821771522106</v>
       </c>
       <c r="J21">
-        <v>1.032246274768443</v>
+        <v>1.031932887115435</v>
       </c>
       <c r="K21">
-        <v>1.041156681304976</v>
+        <v>1.040319048877815</v>
       </c>
       <c r="L21">
-        <v>1.034782643146533</v>
+        <v>1.034435551212386</v>
       </c>
       <c r="M21">
-        <v>1.045011780868043</v>
+        <v>1.044451980712118</v>
       </c>
       <c r="N21">
-        <v>1.014550935280451</v>
+        <v>1.0161189248441</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040253059253673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039677560086802</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023116677205969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00028266940487</v>
+        <v>1.000115137829352</v>
       </c>
       <c r="D22">
-        <v>1.024924058852197</v>
+        <v>1.024240932359618</v>
       </c>
       <c r="E22">
-        <v>1.018166201629565</v>
+        <v>1.017958951673021</v>
       </c>
       <c r="F22">
-        <v>1.028488701767545</v>
+        <v>1.028075970141112</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047513783848961</v>
+        <v>1.047276426686313</v>
       </c>
       <c r="J22">
-        <v>1.031010460698205</v>
+        <v>1.030850278073074</v>
       </c>
       <c r="K22">
-        <v>1.040017423755482</v>
+        <v>1.039346996403966</v>
       </c>
       <c r="L22">
-        <v>1.033386172891998</v>
+        <v>1.033182840421387</v>
       </c>
       <c r="M22">
-        <v>1.043516157492926</v>
+        <v>1.043111026662816</v>
       </c>
       <c r="N22">
-        <v>1.014133788595728</v>
+        <v>1.016084311367129</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039434156288226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038975576560493</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022921016423196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001649150417991</v>
+        <v>1.0013867783595</v>
       </c>
       <c r="D23">
-        <v>1.025837459972274</v>
+        <v>1.025056616876535</v>
       </c>
       <c r="E23">
-        <v>1.019224903630221</v>
+        <v>1.01893104671449</v>
       </c>
       <c r="F23">
-        <v>1.029594871018996</v>
+        <v>1.029090206733382</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04784877360745</v>
+        <v>1.047556164707558</v>
       </c>
       <c r="J23">
-        <v>1.031659747713376</v>
+        <v>1.031408552716313</v>
       </c>
       <c r="K23">
-        <v>1.040612503110056</v>
+        <v>1.039845810441772</v>
       </c>
       <c r="L23">
-        <v>1.034120672825264</v>
+        <v>1.033832228269446</v>
       </c>
       <c r="M23">
-        <v>1.044302212299516</v>
+        <v>1.043806603823298</v>
       </c>
       <c r="N23">
-        <v>1.01435223604877</v>
+        <v>1.016058708725676</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039845331312184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039317746425618</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02301962178776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006951227663031</v>
+        <v>1.006371717023027</v>
       </c>
       <c r="D24">
-        <v>1.029402204480216</v>
+        <v>1.028280970528515</v>
       </c>
       <c r="E24">
-        <v>1.023350600417611</v>
+        <v>1.02276570467284</v>
       </c>
       <c r="F24">
-        <v>1.033906200881768</v>
+        <v>1.033088023618643</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049141496052397</v>
+        <v>1.048660259219768</v>
       </c>
       <c r="J24">
-        <v>1.034184296771954</v>
+        <v>1.033626680034512</v>
       </c>
       <c r="K24">
-        <v>1.042931935864578</v>
+        <v>1.041828998810816</v>
       </c>
       <c r="L24">
-        <v>1.036979697483267</v>
+        <v>1.036404485786449</v>
       </c>
       <c r="M24">
-        <v>1.047362946788892</v>
+        <v>1.046557967050959</v>
       </c>
       <c r="N24">
-        <v>1.01520283998667</v>
+        <v>1.01615349278388</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041477812951918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040711735841688</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02341361298557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012924952365557</v>
+        <v>1.012129654473973</v>
       </c>
       <c r="D25">
-        <v>1.033441021802957</v>
+        <v>1.032041289210479</v>
       </c>
       <c r="E25">
-        <v>1.02802845112573</v>
+        <v>1.027239492465427</v>
       </c>
       <c r="F25">
-        <v>1.038793168193011</v>
+        <v>1.037739448221557</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050569634343828</v>
+        <v>1.049945503979766</v>
       </c>
       <c r="J25">
-        <v>1.037025034420057</v>
+        <v>1.03625559094565</v>
       </c>
       <c r="K25">
-        <v>1.045541477294811</v>
+        <v>1.044161764275434</v>
       </c>
       <c r="L25">
-        <v>1.040206702473701</v>
+        <v>1.039429170441343</v>
       </c>
       <c r="M25">
-        <v>1.050817703767307</v>
+        <v>1.049778852501285</v>
       </c>
       <c r="N25">
-        <v>1.01615997416812</v>
+        <v>1.016809861824943</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043320026028459</v>
+        <v>1.042357952253493</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02387833450637</v>
       </c>
     </row>
   </sheetData>
